--- a/Final_project/describe.xlsx
+++ b/Final_project/describe.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jandr\Documents\ICH\Python for data analysis\HomeWork\Final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD49071B-3441-4EA9-AE61-FC5886892033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70C15EC-5329-44BB-AF63-254D8977C823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
   <si>
     <t>Calls.xlsx</t>
   </si>
@@ -344,13 +345,186 @@
   </si>
   <si>
     <t>print(Calls.dtypes)</t>
+  </si>
+  <si>
+    <r>
+      <t>filtered_Calls.to_excel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'filtered_calls.xlsx'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, index=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>#print(Contacts.isnull().sum())</t>
+  </si>
+  <si>
+    <t># Calls_filled = Calls['CONTACTID'].combine_first(Contacts['Id'])</t>
+  </si>
+  <si>
+    <t># print(Calls_filled.isnull().sum())</t>
+  </si>
+  <si>
+    <t># # Удалите неактуальные столбцы (например, столбцы 'irrelevant_col1' и 'irrelevant_col2')</t>
+  </si>
+  <si>
+    <t># df = df.drop(columns=['irrelevant_col1', 'irrelevant_col2'])</t>
+  </si>
+  <si>
+    <t># # Замена отсутствующих значений на среднее значение для числовых столбцов</t>
+  </si>
+  <si>
+    <t># df['numeric_col'] = df['numeric_col'].fillna(df['numeric_col'].mean())</t>
+  </si>
+  <si>
+    <t># # Замена отсутствующих значений на медиану для другой числовой колонки</t>
+  </si>
+  <si>
+    <t># df['another_numeric_col'] = df['another_numeric_col'].fillna(df['another_numeric_col'].median())</t>
+  </si>
+  <si>
+    <t># # Заполнение пропусков вперед</t>
+  </si>
+  <si>
+    <t># df = df.fillna(method='ffill')</t>
+  </si>
+  <si>
+    <t># # Заполнение пропусков назад</t>
+  </si>
+  <si>
+    <t># df = df.fillna(method='bfill')</t>
+  </si>
+  <si>
+    <t># # Удаление строк с отсутствующими значениями</t>
+  </si>
+  <si>
+    <t># df = df.dropna()</t>
+  </si>
+  <si>
+    <t># # Удаление столбцов с отсутствующими значениями</t>
+  </si>
+  <si>
+    <t># df = df.dropna(axis=1)</t>
+  </si>
+  <si>
+    <t># # Преобразование столбца с датами из строки в тип datetime</t>
+  </si>
+  <si>
+    <t># df['date_col'] = pd.to_datetime(df['date_col'], format='%Y-%m-%d')</t>
+  </si>
+  <si>
+    <t># # Преобразование столбца в числовой тип данных</t>
+  </si>
+  <si>
+    <t># df['numeric_col'] = pd.to_numeric(df['numeric_col'], errors='coerce')</t>
+  </si>
+  <si>
+    <t># # Преобразование столбца в строковый тип данных</t>
+  </si>
+  <si>
+    <t># df['str_col'] = df['str_col'].astype(str)</t>
+  </si>
+  <si>
+    <t>print(Contacts.isnull().sum())</t>
+  </si>
+  <si>
+    <t>PS C:\Users\jandr\Documents\ICH\Python for data analysis\HomeWork&gt; cd .\Final_project\</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git add .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git commit -m "Add HW8"</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Bloggers           0</t>
+  </si>
+  <si>
+    <t>CRM                0</t>
+  </si>
+  <si>
+    <t>Facebook Ads      25</t>
+  </si>
+  <si>
+    <t>Google Ads         8</t>
+  </si>
+  <si>
+    <t>Offline            0</t>
+  </si>
+  <si>
+    <t>Organic            0</t>
+  </si>
+  <si>
+    <t>Partnership        0</t>
+  </si>
+  <si>
+    <t>Radio              0</t>
+  </si>
+  <si>
+    <t>SMM                0</t>
+  </si>
+  <si>
+    <t>Telegram posts     0</t>
+  </si>
+  <si>
+    <t>Test               2</t>
+  </si>
+  <si>
+    <t>Tiktok Ads         6</t>
+  </si>
+  <si>
+    <t>Webinar            8</t>
+  </si>
+  <si>
+    <t>Youtube Ads        3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,13 +551,31 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -398,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -407,6 +599,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,13 +885,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -892,6 +1093,81 @@
       </c>
       <c r="K23" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1171,9 +1447,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B7E5B0-82B9-42E0-B852-920D4F3CB12E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1182,6 +1460,202 @@
         <v>101</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C934AC0-97EA-4F40-A2E2-F115B47402CA}">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection sqref="A1:A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Final_project/describe.xlsx
+++ b/Final_project/describe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jandr\Documents\ICH\Python for data analysis\HomeWork\Final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70C15EC-5329-44BB-AF63-254D8977C823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B09B63-92D0-400E-BB5C-A1A5128F5278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
   <si>
     <t>Calls.xlsx</t>
   </si>
@@ -518,6 +518,15 @@
   </si>
   <si>
     <t>Youtube Ads        3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook Ads, Google Ads, Test , Tiktok Ads , Webinar, Youtube Ads   </t>
   </si>
 </sst>
 </file>
@@ -887,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1099,10 +1108,19 @@
       <c r="A27" t="s">
         <v>132</v>
       </c>
+      <c r="E27" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>133</v>
+      </c>
+      <c r="D28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1179,7 +1197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13638F34-6F1E-4FE4-8493-5E784AA16C4A}">
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1449,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B7E5B0-82B9-42E0-B852-920D4F3CB12E}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Final_project/describe.xlsx
+++ b/Final_project/describe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jandr\Documents\ICH\Python for data analysis\HomeWork\Final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B09B63-92D0-400E-BB5C-A1A5128F5278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB878A-80F5-4CB6-A0DA-B7A433AC5E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Final_project/describe.xlsx
+++ b/Final_project/describe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jandr\Documents\ICH\Python for data analysis\HomeWork\Final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB878A-80F5-4CB6-A0DA-B7A433AC5E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F1429F-6ABB-4F58-ACC0-0646978EC0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
   <si>
     <t>Calls.xlsx</t>
   </si>
@@ -527,13 +527,240 @@
   </si>
   <si>
     <t xml:space="preserve">Facebook Ads, Google Ads, Test , Tiktok Ads , Webinar, Youtube Ads   </t>
+  </si>
+  <si>
+    <t>df = pd.DataFrame(data) # Задайте новое имя файла new_filename = 'new_dataset.csv' # Сохраните DataFrame в новый файл CSV df.to_csv(new_filename, index=False, encoding='utf-8')</t>
+  </si>
+  <si>
+    <r>
+      <t>plt.figure(figsize=(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plt.bar(grouped_dan[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Marka'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>], grouped_dan[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Price'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>], color=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'skyblue'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plt.xlabel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Marka'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plt.ylabel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Средняя цена'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plt.title(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Средняя цена по маркам'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plt.xticks(rotation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>plt.grid(axis=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'y'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>histogram</t>
+  </si>
+  <si>
+    <t># Показать график</t>
+  </si>
+  <si>
+    <t>plt.show()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +796,12 @@
     <font>
       <sz val="7"/>
       <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF098658"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -896,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -1516,10 +1749,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C934AC0-97EA-4F40-A2E2-F115B47402CA}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection sqref="A1:A34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1674,6 +1907,61 @@
         <v>125</v>
       </c>
     </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Final_project/describe.xlsx
+++ b/Final_project/describe.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jandr\Documents\ICH\Python for data analysis\HomeWork\Final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F1429F-6ABB-4F58-ACC0-0646978EC0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63621EDC-FCAD-4332-9698-4E63F7BD1062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="325">
   <si>
     <t>Calls.xlsx</t>
   </si>
@@ -754,13 +755,799 @@
   </si>
   <si>
     <t>plt.show()</t>
+  </si>
+  <si>
+    <t>Для изучения времени закрытия сделок и продолжительности периода от создания до закрытия можно выполнить следующие шаги:</t>
+  </si>
+  <si>
+    <t>1. Рассчитать распределение времени закрытия сделок, то есть количество сделок, закрытых в определенные временные периоды.</t>
+  </si>
+  <si>
+    <t>2. Рассчитать продолжительность периода от создания сделки до её закрытия, что поможет понять среднее время, необходимое для закрытия сделки.</t>
+  </si>
+  <si>
+    <t>3. Проанализировать статистику (среднее, медиана, разброс) и визуализировать её.</t>
+  </si>
+  <si>
+    <t>import pandas as pd</t>
+  </si>
+  <si>
+    <t>import matplotlib.pyplot as plt</t>
+  </si>
+  <si>
+    <t># Пример данных</t>
+  </si>
+  <si>
+    <t>data = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Created': ['2023-09-01', '2023-09-05', '2023-09-08', '2023-09-10'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Closed': ['2023-09-10', '2023-09-15', '2023-09-20', '2023-09-25']</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t># Создание DataFrame</t>
+  </si>
+  <si>
+    <t>df = pd.DataFrame(data)</t>
+  </si>
+  <si>
+    <t># Преобразование строковых дат в формат datetime</t>
+  </si>
+  <si>
+    <t>df['Created'] = pd.to_datetime(df['Created'])</t>
+  </si>
+  <si>
+    <t>df['Closed'] = pd.to_datetime(df['Closed'])</t>
+  </si>
+  <si>
+    <t># Рассчет времени от создания до закрытия сделки (в днях)</t>
+  </si>
+  <si>
+    <t>df['Duration'] = (df['Closed'] - df['Created']).dt.days</t>
+  </si>
+  <si>
+    <t># Статистический анализ</t>
+  </si>
+  <si>
+    <t>duration_stats = df['Duration'].describe()</t>
+  </si>
+  <si>
+    <t># Вывод статистики</t>
+  </si>
+  <si>
+    <t>print("Статистика продолжительности периода от создания до закрытия сделки:")</t>
+  </si>
+  <si>
+    <t>print(duration_stats)</t>
+  </si>
+  <si>
+    <t># Визуализация распределения времени закрытия сделок</t>
+  </si>
+  <si>
+    <t>plt.figure(figsize=(10, 6))</t>
+  </si>
+  <si>
+    <t>plt.hist(df['Duration'], bins=5, color='skyblue', edgecolor='black')</t>
+  </si>
+  <si>
+    <t>plt.title('Distribution of Deal Closure Time')</t>
+  </si>
+  <si>
+    <t>plt.xlabel('Days from Creation to Closure')</t>
+  </si>
+  <si>
+    <t>plt.ylabel('Number of Deals')</t>
+  </si>
+  <si>
+    <t>plt.grid(True)</t>
+  </si>
+  <si>
+    <t>Шаги анализа:</t>
+  </si>
+  <si>
+    <t>1. Рассчет продолжительности: Для каждой сделки мы вычитаем дату создания из даты закрытия, чтобы получить период времени, который потребовался для закрытия (в днях).</t>
+  </si>
+  <si>
+    <t>2. Статистический анализ: Мы можем вывести ключевые статистические параметры, такие как среднее значение, медиана, минимальное и максимальное время закрытия. Это даст понимание о типичной продолжительности цикла сделки.</t>
+  </si>
+  <si>
+    <t>3. Визуализация распределения: Гистограмма, которая показывает количество сделок, закрытых за определенное количество дней, помогает наглядно понять распределение времени закрытия.</t>
+  </si>
+  <si>
+    <t>Ожидаемые результаты:</t>
+  </si>
+  <si>
+    <t>Среднее время закрытия: Показатель того, сколько времени в среднем требуется для закрытия сделки.</t>
+  </si>
+  <si>
+    <t>Медиана: Указывает на типичное время закрытия (меньше подвержено влиянию выбросов).</t>
+  </si>
+  <si>
+    <t>Распределение: Поможет выявить паттерны — например, если большинство сделок закрываются в течение первых нескольких дней или если есть длинный "хвост" сделок, закрывающихся позже.</t>
+  </si>
+  <si>
+    <t>Этот анализ поможет глубже понять, как долго длятся сделки и какие временные интервалы требуют внимания для их ускорения.</t>
+  </si>
+  <si>
+    <t>Проанализируйте заключение международных сделок на определенное время и их связь с звонками с построением графиков в питоне.</t>
+  </si>
+  <si>
+    <t>ChatGPT сказал:</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t>Похоже, что в данный момент я не могу выполнить анализ данных из-за технической проблемы. Однако вы можете проанализировать и визуализировать связь между созданием сделки и звонками, выполнив следующие шаги в Python, используя загруженный вами файл. Вот пример плана, который поможет вам:</t>
+  </si>
+  <si>
+    <t>Шаги для анализа:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Загрузка данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : используется </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>pandas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>для загрузки файла Excel и проверки его содержимого.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Подготовка данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : убедитесь, что даты звонков и сделок указаны в </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>datetime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>правильном формате.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Агрегация</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : сгруппируйте оба набора данных (звонки и сделки) по дням, неделям или месяцам для анализа тенденций с течением времени.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Визуализация</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : используйте </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>matplotlib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>seaborn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>для создания графиков, визуализирующих тенденции и корреляции между звонками и заключением сделок.</t>
+    </r>
+  </si>
+  <si>
+    <t>Пример структуры кода:</t>
+  </si>
+  <si>
+    <t>питон</t>
+  </si>
+  <si>
+    <t>Копировать код</t>
+  </si>
+  <si>
+    <t># Load the Excel file</t>
+  </si>
+  <si>
+    <t>file_path = '/path/to/your/Calls.xlsx'</t>
+  </si>
+  <si>
+    <t>df = pd.read_excel(file_path, sheet_name='Sheet1')  # Adjust the sheet name if necessary</t>
+  </si>
+  <si>
+    <t># Convert relevant columns to datetime format</t>
+  </si>
+  <si>
+    <t>df['Call Start Date'] = pd.to_datetime(df['Call Start Date'])</t>
+  </si>
+  <si>
+    <t>df['Deal Created'] = pd.to_datetime(df['Deal Created'])  # Assuming there's a column for deal creation</t>
+  </si>
+  <si>
+    <t># Aggregate data by week or month to analyze trends</t>
+  </si>
+  <si>
+    <t>calls_weekly = df.groupby(pd.Grouper(key='Call Start Date', freq='W')).size()</t>
+  </si>
+  <si>
+    <t>deals_weekly = df.groupby(pd.Grouper(key='Deal Created', freq='W')).size()</t>
+  </si>
+  <si>
+    <t># Plotting the data</t>
+  </si>
+  <si>
+    <t>plt.plot(calls_weekly.index, calls_weekly.values, label='Calls', color='blue')</t>
+  </si>
+  <si>
+    <t>plt.plot(deals_weekly.index, deals_weekly.values, label='Deals Created', color='green')</t>
+  </si>
+  <si>
+    <t># Customize the plot</t>
+  </si>
+  <si>
+    <t>plt.title('Trends of Calls and Deal Creation Over Time')</t>
+  </si>
+  <si>
+    <t>plt.xlabel('Date')</t>
+  </si>
+  <si>
+    <t>plt.ylabel('Count')</t>
+  </si>
+  <si>
+    <t>plt.legend()</t>
+  </si>
+  <si>
+    <t>Ключевые шаги:</t>
+  </si>
+  <si>
+    <r>
+      <t>Загрузите данные</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> из файла Excel в pandas DataFrame.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Преобразуйте</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> столбцы дат в , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>datetime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>чтобы обеспечить правильный временной анализ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Сгруппируйте</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> данные по соответствующей временной частоте (например, по неделям или месяцам) для анализа тенденций.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Визуализируйте</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> данные, чтобы наблюдать корреляции и тенденции между звонками и заключением сделок.</t>
+    </r>
+  </si>
+  <si>
+    <t>Вы можете запустить его в локальной среде Python или другом инструменте для более расширенного анализа.</t>
+  </si>
+  <si>
+    <t>4о</t>
+  </si>
+  <si>
+    <t>Вы сказали:</t>
+  </si>
+  <si>
+    <t>Сделки1.xlsx</t>
+  </si>
+  <si>
+    <t>Электронная таблица</t>
+  </si>
+  <si>
+    <t>Сравнительная эффективность различных подходов с точки зрения генерации лидов и преобразования коэффициентов в построении графиков питон</t>
+  </si>
+  <si>
+    <t>Кажется, в настоящее время я не могу выполнять анализ данных непосредственно на ваших загруженных файлах. Однако я могу провести вас через процесс сравнения эффективности различных кампаний с точки зрения генерации лидов и коэффициента конверсии, используя</t>
+  </si>
+  <si>
+    <t>Вот схема шагов для сравнения кампаний:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Загрузить данные</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Deals1.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>файл</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Рассчитать метрики</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Визуализируйте результаты</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Пример кода:</t>
+  </si>
+  <si>
+    <t># Load the Excel file with deal data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file_path = </t>
+  </si>
+  <si>
+    <t>file_path =</t>
+  </si>
+  <si>
+    <t>file_path</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>'/path/to/your/Deals1.xlsx'</t>
+  </si>
+  <si>
+    <t>df = pd.read_excel(file_path, sheet_name=</t>
+  </si>
+  <si>
+    <t>df = pd.read_excel(file_path, sheet_name</t>
+  </si>
+  <si>
+    <t>df = pd.read_excel(file_path, sheet</t>
+  </si>
+  <si>
+    <t>df = pd.read_excel(file_path,</t>
+  </si>
+  <si>
+    <t>df = pd.read_excel(file_path</t>
+  </si>
+  <si>
+    <t>df = pd.read_excel(file</t>
+  </si>
+  <si>
+    <t>df = pd.read_excel</t>
+  </si>
+  <si>
+    <t>df = pd.read</t>
+  </si>
+  <si>
+    <t>df = pd</t>
+  </si>
+  <si>
+    <t>df =</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>'Sheet1')  # Adjust sheet name if necessary</t>
+  </si>
+  <si>
+    <t># Assuming columns: 'Campaign', 'Leads Generated', 'Conversions'</t>
+  </si>
+  <si>
+    <t># Calculate total leads and conversion rates per campaign</t>
+  </si>
+  <si>
+    <t>campaign_data = df.groupby(</t>
+  </si>
+  <si>
+    <t>campaign_data = df.groupby</t>
+  </si>
+  <si>
+    <t>campaign_data =</t>
+  </si>
+  <si>
+    <t>campaign_data</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>'Campaign').agg({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Leads Generated': 'sum', </t>
+  </si>
+  <si>
+    <t>'Conversions': 'sum'</t>
+  </si>
+  <si>
+    <t>})</t>
+  </si>
+  <si>
+    <t># Calculate conversion rate</t>
+  </si>
+  <si>
+    <t>campaign_data[</t>
+  </si>
+  <si>
+    <t>'Conversion Rate'] = campaign_data['Conversions'] / campaign_data['Leads Generated']</t>
+  </si>
+  <si>
+    <t># Plot 1: Bar chart of leads generated by each campaign</t>
+  </si>
+  <si>
+    <t>plt.figure(figsize=(</t>
+  </si>
+  <si>
+    <t>plt.figure(figsize</t>
+  </si>
+  <si>
+    <t>plt.figure</t>
+  </si>
+  <si>
+    <t>plt</t>
+  </si>
+  <si>
+    <t>10, 6))</t>
+  </si>
+  <si>
+    <t>'Leads Generated'].plot(kind='bar', color='skyblue', edgecolor='black')</t>
+  </si>
+  <si>
+    <t>plt.title(</t>
+  </si>
+  <si>
+    <t>plt.title</t>
+  </si>
+  <si>
+    <t>'Leads Generated by Each Campaign')</t>
+  </si>
+  <si>
+    <t>plt.xlabel(</t>
+  </si>
+  <si>
+    <t>plt.xlabel</t>
+  </si>
+  <si>
+    <t>'Campaign')</t>
+  </si>
+  <si>
+    <t>plt.ylabel(</t>
+  </si>
+  <si>
+    <t>plt.ylabel</t>
+  </si>
+  <si>
+    <t>'Leads Generated')</t>
+  </si>
+  <si>
+    <t>plt.grid(</t>
+  </si>
+  <si>
+    <t>plt.grid</t>
+  </si>
+  <si>
+    <t>True)</t>
+  </si>
+  <si>
+    <t>plt.show</t>
+  </si>
+  <si>
+    <t># Plot 2: Bar chart of conversion rates by each campaign</t>
+  </si>
+  <si>
+    <t>'Conversion Rate'].plot(kind='bar', color='lightgreen', edgecolor='black')</t>
+  </si>
+  <si>
+    <t>'Conversion Rate by Each Campaign')</t>
+  </si>
+  <si>
+    <t>'Conversion Rate')</t>
+  </si>
+  <si>
+    <t>``</t>
+  </si>
+  <si>
+    <t>Объяснение:</t>
+  </si>
+  <si>
+    <r>
+      <t>Группировка данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Campaign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>к</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Коэффициент конверсии</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Визуализируйте</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Визуальный</t>
+  </si>
+  <si>
+    <t>1. Столбчатая диаграмма, показывающая, сколько лидов было получено</t>
+  </si>
+  <si>
+    <t>2. Гистограмма, показывающая коэффициент конверсии для каждой кампании</t>
+  </si>
+  <si>
+    <t>Вы можете запустить этот скрипт в своей среде Python, чтобы сравнить эффективность кампаний в</t>
+  </si>
+  <si>
+    <t>file_path = '/path/to/your/Deals1.xlsx'</t>
+  </si>
+  <si>
+    <t>df = pd.read_excel(file_path, sheet_name='Sheet1')  # Adjust sheet name if necessary</t>
+  </si>
+  <si>
+    <t>campaign_data = df.groupby('Campaign').agg({</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Leads Generated': 'sum', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Conversions': 'sum'</t>
+  </si>
+  <si>
+    <t>campaign_data['Conversion Rate'] = campaign_data['Conversions'] / campaign_data['Leads Generated']</t>
+  </si>
+  <si>
+    <t>campaign_data['Leads Generated'].plot(kind='bar', color='skyblue', edgecolor='black')</t>
+  </si>
+  <si>
+    <t>plt.title('Leads Generated by Each Campaign')</t>
+  </si>
+  <si>
+    <t>plt.xlabel('Campaign')</t>
+  </si>
+  <si>
+    <t>plt.ylabel('Leads Generated')</t>
+  </si>
+  <si>
+    <t>campaign_data['Conversion Rate'].plot(kind='bar', color='lightgreen', edgecolor='black')</t>
+  </si>
+  <si>
+    <t>plt.title('Conversion Rate by Each Campaign')</t>
+  </si>
+  <si>
+    <t>plt.ylabel('Conversion Rate')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +1592,43 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -832,7 +1656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -845,6 +1669,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,42 +1978,42 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +2027,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1196,7 +2041,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1210,7 +2055,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1224,7 +2069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1238,7 +2083,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1249,7 +2094,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1260,7 +2105,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1271,7 +2116,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1282,7 +2127,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +2138,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1304,7 +2149,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1315,7 +2160,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="H22" t="s">
         <v>85</v>
       </c>
@@ -1323,7 +2168,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -1337,7 +2182,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -1345,7 +2190,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -1356,67 +2201,67 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -1434,259 +2279,259 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -1704,39 +2549,39 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -1751,213 +2596,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C934AC0-97EA-4F40-A2E2-F115B47402CA}">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1">
       <c r="A13" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1">
       <c r="A16" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1">
       <c r="A20" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1">
       <c r="A26" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1">
       <c r="A30" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1">
       <c r="A32" s="4"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1">
       <c r="A33" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1">
       <c r="A38" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1">
       <c r="A39" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1">
       <c r="A40" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1">
       <c r="A41" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1">
       <c r="A42" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1">
       <c r="A43" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1">
       <c r="A44" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1">
       <c r="A46" s="2" t="s">
         <v>160</v>
       </c>
@@ -1965,4 +2810,1357 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D59BF50-F928-4DC9-8C12-343BA445D41B}">
+  <dimension ref="A1:E294"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E167" sqref="E167:E200"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18">
+      <c r="A67" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="18">
+      <c r="A74" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="7"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18">
+      <c r="A106" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="6"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="6"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="18">
+      <c r="A135" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="7"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E140" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="7"/>
+      <c r="E141" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E142" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E144" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="7"/>
+      <c r="E145" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E146" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="7"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E148" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E149" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E150" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="7"/>
+      <c r="E152" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E153" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="7"/>
+      <c r="E154" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E155" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="7"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E157" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="7"/>
+      <c r="E158" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E159" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="7"/>
+      <c r="E160" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E161" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="7"/>
+      <c r="E162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E163" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="7"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="7"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E167" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="7"/>
+      <c r="E168" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E170" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="7"/>
+      <c r="E171" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E172" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E174" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E175" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="7"/>
+      <c r="E176" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E177" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="7"/>
+      <c r="E178" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E179" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="7"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E181" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="E182" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E184" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E186" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E187" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="E188" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="E189" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="7"/>
+      <c r="E190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E191" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="E193" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E194" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="7"/>
+      <c r="E195" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E196" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E197" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E198" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="7"/>
+      <c r="E199" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E200" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="7"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="7"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="7"/>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="7"/>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="7"/>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="7"/>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="7"/>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="7"/>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="7"/>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="7"/>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="7"/>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="7"/>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="7"/>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="7"/>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="7"/>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="7"/>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="7"/>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="7"/>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="7"/>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="7"/>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="7"/>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="18">
+      <c r="A281" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="6"/>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="18">
+      <c r="A287" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="6"/>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Final_project/describe.xlsx
+++ b/Final_project/describe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jandr\Documents\ICH\Python for data analysis\HomeWork\Final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63621EDC-FCAD-4332-9698-4E63F7BD1062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B252DB4-9682-4E08-B43D-9F70DF615BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="370">
   <si>
     <t>Calls.xlsx</t>
   </si>
@@ -1541,6 +1542,305 @@
   </si>
   <si>
     <t>plt.ylabel('Conversion Rate')</t>
+  </si>
+  <si>
+    <t>Анализ эффективности кампаний: # 1. Сравните эффективность различных кампаний с точки зрения генерации лидов и коэффициента конверсии.</t>
+  </si>
+  <si>
+    <t>Анализ эффективности кампаний включает оценку различных маркетинговых усилий с точки зрения ключевых показателей, таких как генерация лидов (количество новых потенциальных клиентов) и коэффициент конверсии (процент лидов, которые превращаются в сделки).</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Сбор данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Необходимы данные по кампаниям, лидогенерации и конверсии.</t>
+  </si>
+  <si>
+    <t>Пример данных: для каждой кампании у вас должны быть следующие столбцы:</t>
+  </si>
+  <si>
+    <r>
+      <t>Название кампании (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Campaign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Количество сгенерированных лидов (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Leads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Количество закрытых сделок или конверсий (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Conversions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Затраты на кампанию (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Cost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Расчет коэффициента конверсии</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Коэффициент конверсии рассчитывается как: Коэффициент конверсии=Количество конверсийКоличество лидов×100\text{Коэффициент конверсии} = \frac{\text{Количество конверсий}}{\text{Количество лидов}} \times 100Коэффициент конверсии=Количество лидовКоличество конверсий​×100</t>
+  </si>
+  <si>
+    <r>
+      <t>3. Сравнение по генерации лидов и коэффициенту конверсии</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Можно построить графики для визуализации:</t>
+  </si>
+  <si>
+    <t>Гистограмма или столбчатая диаграмма для сравнения числа лидов по кампаниям.</t>
+  </si>
+  <si>
+    <t>Линейный график или гистограмма для сравнения коэффициента конверсии.</t>
+  </si>
+  <si>
+    <r>
+      <t>4. Дополнительный анализ (при необходимости)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Рассчитать стоимость одного лида для каждой кампании: Стоимость лида=Затраты на кампаниюКоличество лидов\text{Стоимость лида} = \frac{\text{Затраты на кампанию}}{\text{Количество лидов}}Стоимость лида=Количество лидовЗатраты на кампанию​</t>
+  </si>
+  <si>
+    <t>Рассчитать стоимость одной конверсии: Стоимость конверсии=Затраты на кампаниюКоличество конверсий\text{Стоимость конверсии} = \frac{\text{Затраты на кампанию}}{\text{Количество конверсий}}Стоимость конверсии=Количество конверсийЗатраты на кампанию​</t>
+  </si>
+  <si>
+    <t>Пример кода для анализа:</t>
+  </si>
+  <si>
+    <t># Пример данных о кампаниях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Campaign': ['Campaign A', 'Campaign B', 'Campaign C'],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Leads': [300, 450, 500],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Conversions': [30, 45, 60],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Cost': [1000, 1500, 2000]</t>
+  </si>
+  <si>
+    <t># Расчет коэффициента конверсии</t>
+  </si>
+  <si>
+    <t>df['Conversion Rate (%)'] = (df['Conversions'] / df['Leads']) * 100</t>
+  </si>
+  <si>
+    <t># График 1: Сравнение генерации лидов по кампаниям</t>
+  </si>
+  <si>
+    <t>plt.bar(df['Campaign'], df['Leads'], color='skyblue')</t>
+  </si>
+  <si>
+    <t>plt.xlabel('Кампания')</t>
+  </si>
+  <si>
+    <t>plt.ylabel('Количество лидов')</t>
+  </si>
+  <si>
+    <t>plt.title('Сравнение генерации лидов по кампаниям')</t>
+  </si>
+  <si>
+    <t># График 2: Сравнение коэффициента конверсии по кампаниям</t>
+  </si>
+  <si>
+    <t>plt.bar(df['Campaign'], df['Conversion Rate (%)'], color='lightgreen')</t>
+  </si>
+  <si>
+    <t>plt.ylabel('Коэффициент конверсии (%)')</t>
+  </si>
+  <si>
+    <t>plt.title('Сравнение коэффициента конверсии по кампаниям')</t>
+  </si>
+  <si>
+    <t># Дополнительно: расчет стоимости лида и конверсии</t>
+  </si>
+  <si>
+    <t>df['Cost per Lead'] = df['Cost'] / df['Leads']</t>
+  </si>
+  <si>
+    <t>df['Cost per Conversion'] = df['Cost'] / df['Conversions']</t>
+  </si>
+  <si>
+    <t>print(df[['Campaign', 'Cost per Lead', 'Cost per Conversion']])</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Коэффициент конверсии</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Расчет для каждой кампании, чтобы определить, какой процент лидов превращается в клиентов.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Сравнение лидов и конверсий</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Построение двух графиков, один для сравнения количества лидов, а второй для коэффициента конверсии по кампаниям.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Стоимость лида и конверсии</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Если вы хотите проанализировать рентабельность кампаний, можно рассчитать эти метрики.</t>
+    </r>
+  </si>
+  <si>
+    <t>Что анализ показывает:</t>
+  </si>
+  <si>
+    <t>Кампания с наибольшим количеством лидов не всегда является самой эффективной, если коэффициент конверсии низок.</t>
+  </si>
+  <si>
+    <t>Оптимальная кампания — та, которая генерирует высокое количество лидов при хорошем коэффициенте конверсии и разумных затратах.</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1691,6 +1991,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2816,7 +3122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D59BF50-F928-4DC9-8C12-343BA445D41B}">
   <dimension ref="A1:E294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A164" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E167" sqref="E167:E200"/>
     </sheetView>
   </sheetViews>
@@ -4163,4 +4469,356 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427DDB04-CB3C-4172-AB0F-03CD9A0E3019}">
+  <dimension ref="A1:A88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:A88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18">
+      <c r="A9" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18">
+      <c r="A39" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18">
+      <c r="A79" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18">
+      <c r="A85" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Final_project/describe.xlsx
+++ b/Final_project/describe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jandr\Documents\ICH\Python for data analysis\HomeWork\Final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B252DB4-9682-4E08-B43D-9F70DF615BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91DA46E-2C6E-4887-9547-421063D6C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="596">
   <si>
     <t>Calls.xlsx</t>
   </si>
@@ -1841,13 +1844,2018 @@
   </si>
   <si>
     <t>Оптимальная кампания — та, которая генерирует высокое количество лидов при хорошем коэффициенте конверсии и разумных затратах.</t>
+  </si>
+  <si>
+    <t>Для того чтобы выполнить задание по продуктовой аналитике, необходимо следовать пошаговому плану:</t>
+  </si>
+  <si>
+    <t>1. Посчитать юнит-экономику по продуктам</t>
+  </si>
+  <si>
+    <t>Юнит-экономика включает ключевые метрики:</t>
+  </si>
+  <si>
+    <r>
+      <t>Доход на единицу продукта (ARPU)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — средняя выручка на пользователя.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Стоимость привлечения клиента (CAC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — затраты на привлечение одного клиента.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Средний жизненный цикл клиента (LTV)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — общая прибыль от одного клиента за весь период использования.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Маржинальность продукта</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — соотношение между доходами и затратами на производство/оказание услуги.</t>
+    </r>
+  </si>
+  <si>
+    <t>Шаги:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Загрузим данные из предоставленных файлов: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Calls.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Deals1.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Level_of_Deutsch_mapping.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Quality_mapping.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Spend.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Проведем агрегацию данных по продуктам и затратам для расчета ARPU, CAC, LTV и маржинальности.</t>
+  </si>
+  <si>
+    <t>2. Определить точки роста бизнеса из юнит-экономики</t>
+  </si>
+  <si>
+    <t>После расчета юнит-экономики определим слабые места, например:</t>
+  </si>
+  <si>
+    <t>Высокие затраты на привлечение клиентов (CAC).</t>
+  </si>
+  <si>
+    <t>Низкая маржинальность.</t>
+  </si>
+  <si>
+    <t>Низкий LTV.</t>
+  </si>
+  <si>
+    <t>3. Понять дерево метрик для бизнеса</t>
+  </si>
+  <si>
+    <t>Дерево метрик включает основные параметры, которые влияют на бизнес. Основные метрики:</t>
+  </si>
+  <si>
+    <r>
+      <t>Конверсия</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (C1, C2, C3) — показатель того, как пользователи перемещаются по воронке.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ARPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — доход на одного пользователя.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LTV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — общий доход от пользователя.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — затраты на привлечение клиента.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Retention</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — удержание клиента.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Формирование гипотез для улучшения метрик</t>
+  </si>
+  <si>
+    <t>На основании анализа юнит-экономики и дерева метрик можно выдвинуть гипотезы:</t>
+  </si>
+  <si>
+    <t>Пример гипотез:</t>
+  </si>
+  <si>
+    <r>
+      <t>Уменьшение CAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Оптимизировать маркетинговые каналы, чтобы снизить стоимость привлечения.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Увеличение конверсии</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Улучшение пользовательского опыта на этапе выбора продукта.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Увеличение ARPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Введение дополнительных услуг/функционала.</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Метод проверки гипотез</t>
+  </si>
+  <si>
+    <t>Пример гипотезы:</t>
+  </si>
+  <si>
+    <r>
+      <t>Гипотеза</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Оптимизация лендинга увеличит конверсию (C1) на 10%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Метод</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Провести A/B тестирование на лендинге. Группы тестирования — контрольная и экспериментальная группы.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ключевые метрики</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Измерить изменение C1 и общий прирост выручки.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Условие</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Тест должен занимать не больше двух недель с достаточным объемом трафика.</t>
+    </r>
+  </si>
+  <si>
+    <t>Теперь перейдем к выполнению расчетов, начиная с юнит-экономики.</t>
+  </si>
+  <si>
+    <t>Исходя из загруженных данных, мы можем приступить к выполнению задания:</t>
+  </si>
+  <si>
+    <t>1. Расчет юнит-экономики:</t>
+  </si>
+  <si>
+    <r>
+      <t>Доход на единицу продукта (ARPU)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — рассчитываем средний доход на каждого клиента, основываясь на столбце </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Offer Total Amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в данных о сделках.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CAC (Cost of Acquiring Customer)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — будет рассчитан на основании затрат из файла </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Spend.xlsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (столбец </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Spend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LTV (Lifetime Value)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — можем использовать сумму оплат (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Initial Amount Paid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) и коэффициент удержания клиентов для расчета общего дохода на одного клиента за его жизненный цикл.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Маржинальность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — соотношение прибыли и затрат на привлечение клиентов.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Определение точек роста:</t>
+  </si>
+  <si>
+    <t>Анализ затрат и доходов на пользователя позволит найти точки роста:</t>
+  </si>
+  <si>
+    <t>Высокие затраты на привлечение клиентов.</t>
+  </si>
+  <si>
+    <t>Недостаточная конверсия на определенных этапах.</t>
+  </si>
+  <si>
+    <t>3. Дерево метрик:</t>
+  </si>
+  <si>
+    <t>Ключевые метрики:</t>
+  </si>
+  <si>
+    <r>
+      <t>Конверсия</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> по сделкам — от этапа лида до этапа завершенной сделки.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Средний доход на пользователя (ARPU)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Затраты на привлечение клиентов (CAC)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Retention (удержание клиентов)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Формулирование гипотез:</t>
+  </si>
+  <si>
+    <t>После анализа юнит-экономики выдвинем гипотезы для повышения метрик, например:</t>
+  </si>
+  <si>
+    <r>
+      <t>Гипотеза</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Оптимизация кампаний Google Ads может снизить CAC на 15%.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Метрика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Увеличение конверсии и снижение затрат на привлечение.</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Метод проверки гипотез:</t>
+  </si>
+  <si>
+    <t>Для проверки гипотезы можно провести A/B-тестирование, разделив трафик на две группы:</t>
+  </si>
+  <si>
+    <t>Контрольная группа — без изменений.</t>
+  </si>
+  <si>
+    <t>Экспериментальная группа — с оптимизированными кампаниями. Цель — проверить изменение CAC и конверсии в течение двух недель.</t>
+  </si>
+  <si>
+    <t>Теперь мы выполним расчет юнит-экономики. ​​</t>
+  </si>
+  <si>
+    <t>Unit Economics</t>
+  </si>
+  <si>
+    <t>ARPU</t>
+  </si>
+  <si>
+    <t>CAC</t>
+  </si>
+  <si>
+    <t>LTV</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Мы рассчитали юнит-экономику по продуктам, и вот ключевые показатели:</t>
+  </si>
+  <si>
+    <r>
+      <t>ARPU (средний доход на одного клиента)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 8,569.07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CAC (стоимость привлечения клиента)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 46.39</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LTV (средний доход за жизненный цикл клиента)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 8,569.07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Маржинальность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 99.46%</t>
+    </r>
+  </si>
+  <si>
+    <t>Точка роста:</t>
+  </si>
+  <si>
+    <t>Хотя маржинальность очень высока, мы можем рассмотреть улучшение процесса привлечения клиентов, так как стоимость привлечения (CAC) относительно невелика и есть потенциал для оптимизации маркетинговых кампаний.</t>
+  </si>
+  <si>
+    <t>Гипотеза:</t>
+  </si>
+  <si>
+    <r>
+      <t>Гипотеза</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Оптимизация маркетинговых кампаний (например, за счет таргетирования) может снизить CAC еще на 10%, что дополнительно увеличит маржинальность и прибыльность.</t>
+    </r>
+  </si>
+  <si>
+    <t>Метод тестирования:</t>
+  </si>
+  <si>
+    <t>Провести A/B тестирование рекламных кампаний в Google Ads и Facebook Ads.</t>
+  </si>
+  <si>
+    <t>Целевая метрика: снижение CAC.</t>
+  </si>
+  <si>
+    <t>Продолжительность: до 2 недель.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The visualization you're generating combines two metrics: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>total successful deals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>total spend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>advertising source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Here’s how to interpret and analyze the resulting graph:</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Bar Chart (Total Successful Deals by Source):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each bar represents the total number of successful deals generated from a specific </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (advertising channel).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Interpretation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Taller bars indicate that the source generated more successful deals. By comparing the height of the bars, you can quickly identify which channels are more effective at driving successful deals. For example:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Google Ads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has the tallest bar, this suggests that Google Ads drives the most successful deals.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On the other hand, shorter bars for sources like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Facebook Ads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> may indicate that they are less effective at generating successful deals.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Line Plot (Total Spend by Source):</t>
+  </si>
+  <si>
+    <t>The red line represents the total advertising spend per source.</t>
+  </si>
+  <si>
+    <r>
+      <t>Interpretation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The line plot helps you understand how much you are spending per advertising channel relative to the number of successful deals. A source that has a high spend but a low number of successful deals could be inefficient.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Key Insights:</t>
+  </si>
+  <si>
+    <r>
+      <t>High Spend, Low Success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: If a source has high total spend but generates fewer successful deals, it might be inefficient. You might consider optimizing the campaigns or reducing the budget for that source.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Low Spend, High Success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: If a source generates many successful deals at a low cost, this is a highly efficient channel. You could consider increasing investment in such sources.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Balanced Source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A source where both the bar (successful deals) and line (spend) are proportional suggests a balanced performance. These sources are working well relative to their budget.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example Analysis:</t>
+  </si>
+  <si>
+    <r>
+      <t>Google Ads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: If the bar for Google Ads is high (many successful deals) and the line for spend is moderate, this suggests good efficiency and ROI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Facebook Ads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: If the bar for Facebook Ads is low but the spend line is high, this suggests poor performance, meaning resources might be better allocated elsewhere.</t>
+    </r>
+  </si>
+  <si>
+    <t>By analyzing this graph, you can make data-driven decisions about where to allocate your advertising budget to maximize successful deals at the lowest cost.</t>
+  </si>
+  <si>
+    <t>Визуализация, которую вы создаете, объединяет два показателя: общее количество успешных сделок и общие расходы по источникам рекламы. Вот как интерпретировать и анализировать полученный график:</t>
+  </si>
+  <si>
+    <t>1. Столбчатая диаграмма (общее количество успешных сделок по источникам):</t>
+  </si>
+  <si>
+    <t>Каждый столбец представляет общее количество успешных сделок, сгенерированных из определенного источника (рекламного канала).</t>
+  </si>
+  <si>
+    <t>Интерпретация: более высокие столбцы указывают на то, что источник сгенерировал больше успешных сделок. Сравнивая высоту столбцов, вы можете быстро определить, какие каналы более эффективны в привлечении успешных сделок. Например:</t>
+  </si>
+  <si>
+    <t>Если у Google Ads самый высокий столбец, это говорит о том, что Google Ads привлекает самые успешные сделки.</t>
+  </si>
+  <si>
+    <t>С другой стороны, более короткие столбцы для таких источников, как Facebook Ads, могут указывать на то, что они менее эффективны в привлечении успешных сделок.</t>
+  </si>
+  <si>
+    <t>2. Линейный график (общие расходы по источникам):</t>
+  </si>
+  <si>
+    <t>Красная линия представляет общие расходы на рекламу по источникам.</t>
+  </si>
+  <si>
+    <t>Интерпретация: линейный график помогает вам понять, сколько вы тратите на рекламный канал относительно количества успешных сделок. Источник с высокими расходами, но малым количеством успешных сделок может быть неэффективным.</t>
+  </si>
+  <si>
+    <t>3. Ключевые выводы:</t>
+  </si>
+  <si>
+    <t>Высокие расходы, низкий успех: если источник имеет высокие общие расходы, но генерирует меньше успешных сделок, он может быть неэффективным. Вы можете рассмотреть возможность оптимизации кампаний или сокращения бюджета для этого источника.</t>
+  </si>
+  <si>
+    <t>Низкие расходы, высокий успех: если источник генерирует много успешных сделок по низкой цене, это высокоэффективный канал. Вы можете рассмотреть возможность увеличения инвестиций в такие источники.</t>
+  </si>
+  <si>
+    <t>Сбалансированный источник: источник, в котором и полоса (успешные сделки), и линия (расходы) пропорциональны, предполагает сбалансированную эффективность. Эти источники хорошо работают относительно своего бюджета.</t>
+  </si>
+  <si>
+    <t>Пример анализа:</t>
+  </si>
+  <si>
+    <t>Google Ads: если полоса для Google Ads высокая (много успешных сделок), а линия для расходов умеренная, это говорит о хорошей эффективности и рентабельности инвестиций.</t>
+  </si>
+  <si>
+    <t>Facebook Ads: если полоса для Facebook Ads низкая, но линия расходов высокая, это говорит о низкой эффективности, а это означает, что ресурсы, возможно, лучше распределить в другом месте.</t>
+  </si>
+  <si>
+    <t>Анализируя этот график, вы можете принимать решения на основе данных о том, куда направить свой рекламный бюджет, чтобы максимизировать успешные сделки по самой низкой цене.</t>
+  </si>
+  <si>
+    <t>На основе предоставленного графика, вот подробный анализ взаимосвязи между источником рекламы, общим количеством успешных сделок и общими расходами:</t>
+  </si>
+  <si>
+    <t>Основные наблюдения:</t>
+  </si>
+  <si>
+    <t>Реклама в Facebook:</t>
+  </si>
+  <si>
+    <t>Общее количество успешных сделок: Реклама в Facebook выделяется наибольшим количеством успешных сделок по сравнению с любым другим источником. Полоса значительно больше, чем у любого другого канала.</t>
+  </si>
+  <si>
+    <t>Общие расходы: линия, представляющая общие расходы на рекламу в Facebook, умеренная, что говорит о том, что расходы относительно количества успешных сделок эффективны. Это делает рекламу в Facebook потенциально высокорентабельным каналом.</t>
+  </si>
+  <si>
+    <t>Реклама в Google:</t>
+  </si>
+  <si>
+    <t>Общее количество успешных сделок: Реклама в Google также способствует значительному количеству успешных сделок, хотя и не так сильно, как реклама в Facebook.</t>
+  </si>
+  <si>
+    <t>Общие расходы: расходы на рекламу в Google ниже, чем на рекламу в Facebook, но, учитывая солидное количество сделок, она также представляется относительно эффективным с точки зрения затрат источником.</t>
+  </si>
+  <si>
+    <t>Реклама в Tiktok:</t>
+  </si>
+  <si>
+    <t>Общее количество успешных сделок: Реклама в Tiktok генерирует довольно много успешных сделок, хотя и гораздо меньше, чем реклама в Facebook.</t>
+  </si>
+  <si>
+    <t>Общие расходы: расходы здесь относительно низкие, что указывает на то, что этот канал также может быть эффективным, хотя его охват с точки зрения успешных сделок ограничен.</t>
+  </si>
+  <si>
+    <t>Другие источники (CRM, органический, офлайн, сообщения Telegram, вебинар, реклама на YouTube):</t>
+  </si>
+  <si>
+    <t>Общее количество успешных сделок: эти источники приносят очень мало успешных сделок. Их полосы практически незначительны по сравнению с рекламой в Facebook и Google Ads.</t>
+  </si>
+  <si>
+    <t>Общие расходы: несмотря на создание меньшего количества сделок, эти источники все равно несут расходы. Например, реклама в вебинаре и на YouTube показывает некоторые расходы, но не приводит к большому количеству успешных сделок. Это говорит о том, что эти источники менее эффективны и могут нуждаться в дальнейшем исследовании для повышения производительности или перераспределения бюджета.</t>
+  </si>
+  <si>
+    <t>CRM:</t>
+  </si>
+  <si>
+    <t>Кажется, что источник CRM имеет минимальные расходы и почти ноль успешных сделок. Он может быть недоиспользован или неэффективен в своей текущей реализации.</t>
+  </si>
+  <si>
+    <t>Основные выводы:</t>
+  </si>
+  <si>
+    <t>Реклама в Facebook: сочетание большого количества успешных сделок и умеренных расходов указывает на то, что реклама в Facebook является высокоэффективным рекламным каналом.</t>
+  </si>
+  <si>
+    <t>Google Ads: Google Ads также хорошо работает, предоставляя достаточное количество сделок по разумной цене, что делает его надежным дополнительным вариантом.</t>
+  </si>
+  <si>
+    <t>Неэффективные каналы: такие каналы, как Webinar, Youtube Ads и Offline, генерируют очень мало сделок, несмотря на расходы. Эти каналы следует тщательно изучить на предмет эффективности, и бюджет, возможно, придется перераспределить в сторону более успешных каналов, таких как Facebook или Google Ads.</t>
+  </si>
+  <si>
+    <t>Рекомендации:</t>
+  </si>
+  <si>
+    <t>Сосредоточьтесь на Facebook и Google Ads: поскольку эти два канала обеспечивают наибольшее количество успешных сделок по разумной цене, дополнительный бюджет и усилия можно сосредоточить здесь.</t>
+  </si>
+  <si>
+    <t>Переоцените неэффективные каналы: такие каналы, как CRM, Webinar и Youtube Ads, по-видимому, неэффективны с точки зрения рентабельности инвестиций. Возможно, вам стоит оптимизировать их стратегии или сократить расходы на них.</t>
+  </si>
+  <si>
+    <t>Поэкспериментируйте с Tiktok Ads: хотя Tiktok Ads генерирует меньше сделок, относительно низкие расходы указывают на то, что это может быть областью для потенциального роста при большей оптимизации. Этот анализ помогает определить, какие каналы обеспечивают максимальную отдачу от инвестиций, а какие требуют дальнейшего улучшения или перераспределения ресурсов.</t>
+  </si>
+  <si>
+    <t>анализ графика</t>
+  </si>
+  <si>
+    <t>Глядя на график, можно сделать несколько наблюдений:</t>
+  </si>
+  <si>
+    <t>1. Тренд количества сделок (синяя линия):</t>
+  </si>
+  <si>
+    <t>В начале наблюдается низкое количество сделок, постепенно растущее до примерно 20 недели, после чего количество сделок резко увеличивается до пикового значения в середине графика (примерно 55 сделок).</t>
+  </si>
+  <si>
+    <t>Затем количество сделок колеблется, демонстрируя несколько значительных падений и подъемов, с некоторыми сильными колебаниями в течение всего периода.</t>
+  </si>
+  <si>
+    <t>Общая тенденция — значительный рост в первые недели с последующими колебаниями.</t>
+  </si>
+  <si>
+    <t>2. Тренд средней продолжительности сделок (красная линия):</t>
+  </si>
+  <si>
+    <t>В начале средней продолжительности (около 20-30 дней) наблюдается стабильно низкий уровень. Однако по мере увеличения числа сделок, средняя продолжительность закрытия сделок начинает также увеличиваться.</t>
+  </si>
+  <si>
+    <t>Пиковая продолжительность превышает 80 дней на одном из интервалов (примерно на 70-й неделе), что говорит о том, что некоторые сделки требуют больше времени для закрытия.</t>
+  </si>
+  <si>
+    <t>Несмотря на колебания, виден общий тренд увеличения продолжительности сделок.</t>
+  </si>
+  <si>
+    <t>3. Взаимосвязь между количеством сделок и продолжительностью:</t>
+  </si>
+  <si>
+    <t>В начале графика (первая половина) можно наблюдать обратную корреляцию: при росте количества сделок продолжительность снижается или остается относительно стабильной.</t>
+  </si>
+  <si>
+    <t>Во второй половине графика, наоборот, наблюдаются периоды, когда продолжительность сделок возрастает параллельно с увеличением количества сделок, что может указывать на более сложные или более длительные сделки по мере увеличения числа сделок.</t>
+  </si>
+  <si>
+    <t>Выводы и возможные гипотезы:</t>
+  </si>
+  <si>
+    <r>
+      <t>Рост количества сделок</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Наблюдается явный тренд увеличения числа сделок в начале периода. Это может быть связано с увеличением спроса или с повышением активности продаж.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Увеличение продолжительности сделок</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: По мере роста количества сделок, средняя продолжительность также растет, особенно во второй половине периода. Это может свидетельствовать о том, что либо сделки стали более сложными, либо ресурсы команды ограничены, и закрытие сделок занимает больше времени.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Рекомендации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Возможно, необходимо улучшить процессы управления сделками для сокращения времени закрытия.</t>
+  </si>
+  <si>
+    <t>Также стоит рассмотреть возможность автоматизации или найма дополнительных ресурсов для обработки большего количества сделок.</t>
+  </si>
+  <si>
+    <t>Какие факторы могли повлиять на рост продолжительности сделок?</t>
+  </si>
+  <si>
+    <t>Рост продолжительности сделок может быть вызван несколькими факторами, как внутренними, так и внешними, которые могли повлиять на процессы продаж. Рассмотрим возможные причины:</t>
+  </si>
+  <si>
+    <t>1. Рост объема сделок:</t>
+  </si>
+  <si>
+    <r>
+      <t>Перегрузка команды продаж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Если количество сделок значительно увеличилось, команда продаж могла быть перегружена, что могло замедлить процесс обработки сделок. Если менеджеры по продажам не успевают вовремя завершать сделки, продолжительность их закрытия увеличивается.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Расширение клиентской базы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Увеличение количества сделок может свидетельствовать о том, что компания начала работать с новыми клиентами или сегментами рынка, где продажи могут требовать больше времени для переговоров и заключения договоренностей.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Изменение сложности сделок:</t>
+  </si>
+  <si>
+    <r>
+      <t>Увеличение сложности продуктов или услуг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Возможно, компания начала предлагать более сложные или кастомизированные продукты, что увеличило время на подготовку предложения, демонстрацию или согласование условий сделки.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Многоэтапные сделки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Продажи стали более многоэтапными, включая дополнительные переговоры, утверждение бюджета, согласование условий с различными отделами клиента, что естественным образом удлиняет процесс.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Изменения в процессах внутри компании:</t>
+  </si>
+  <si>
+    <r>
+      <t>Изменение процесса продаж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Внутренние изменения, такие как изменение стратегии продаж, внедрение новых инструментов или переход на новый CRM-сервис, могли временно замедлить работу команды, что повлияло на длительность сделок.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Изменение политики ценообразования</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Если произошли изменения в политике ценообразования, это могло требовать дополнительных согласований и переговоров с клиентами, увеличивая продолжительность сделки.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Влияние внешних факторов:</t>
+  </si>
+  <si>
+    <r>
+      <t>Экономическая ситуация</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: В случае экономических колебаний (например, спад или кризис), клиенты могут дольше принимать решения о покупке, что приводит к увеличению времени на переговоры.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Сезонность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: В некоторых индустриях спрос может сильно колебаться в зависимости от времени года, что влияет на скорость принятия решений клиентами. Например, в преддверии праздничных сезонов или в конце года сделки могут закрываться быстрее или медленнее, в зависимости от стратегии клиентов.</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Изменение профиля клиентов:</t>
+  </si>
+  <si>
+    <r>
+      <t>Работа с новыми сегментами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Если компания начала работать с новыми сегментами рынка (например, крупные корпоративные клиенты), такие сделки могут потребовать больше времени из-за более сложных структур закупок, необходимости утверждения бюджета или большого количества заинтересованных сторон в компании клиента.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Рост числа холодных лидов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Если команда стала работать с менее подготовленными клиентами или холодными лидами, то цикл сделки может удлиняться из-за необходимости дополнительной работы по формированию потребности.</t>
+    </r>
+  </si>
+  <si>
+    <t>6. Технические и логистические барьеры:</t>
+  </si>
+  <si>
+    <r>
+      <t>Задержки в поставках или производстве</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Если компания сталкивается с логистическими проблемами, задержками в производстве или доставке товаров, это может повлиять на время заключения сделок, особенно в случае B2B продаж.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Проблемы с интеграцией новых технологий</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Если в компании внедряются новые технологии или инструменты, сотрудники могут тратить больше времени на адаптацию и работу с ними, что может замедлить процессы.</t>
+    </r>
+  </si>
+  <si>
+    <t>7. Увеличение требований со стороны клиентов:</t>
+  </si>
+  <si>
+    <r>
+      <t>Увеличение требований к кастомизации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Клиенты могут требовать более кастомизированные решения, что увеличивает время на подготовку предложения, адаптацию продукта и выполнение дополнительных задач.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Увеличение количества запросов и вопросов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Некоторые клиенты могут быть более требовательными, что ведет к дополнительным этапам согласований и проверок перед заключением сделки.</t>
+    </r>
+  </si>
+  <si>
+    <t>8. Проблемы с квалификацией лидов:</t>
+  </si>
+  <si>
+    <r>
+      <t>Неэффективная квалификация лидов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Если лиды, которые попадают в работу команде продаж, недостаточно квалифицированы, менеджеры могут тратить больше времени на доведение их до сделки, что может увеличить продолжительность сделок.</t>
+    </r>
+  </si>
+  <si>
+    <t>Возможные действия для улучшения:</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Оптимизация процесса продаж</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Пересмотр текущих процессов для улучшения их эффективности. Это может включать анализ воронки продаж и устранение узких мест.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Анализ ресурсов команды</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Оценка текущей загрузки команды и, при необходимости, увеличение числа сотрудников или внедрение автоматизации для работы с большим объемом сделок.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Улучшение работы с лидами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Пересмотр процесса квалификации лидов для того, чтобы сократить время, затрачиваемое на неэффективные сделки.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Работа с клиентами и обучение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Если клиенты требуют больше времени на сделки, можно улучшить взаимодействие с ними, оптимизировать предложения и ускорить процесс принятия решений.</t>
+    </r>
+  </si>
+  <si>
+    <t>Эти факторы могут объяснять увеличение продолжительности сделок, и дальнейший анализ может помочь точнее определить ключевые причины в вашем конкретном случае.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. P-value ANOVA теста</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (отображен на графике):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> меньше 0.05, это говорит о том, что различия в продолжительности сделок для различных уровней качества являются </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>статистически значимыми</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Это означает, что качество сделки действительно влияет на продолжительность её закрытия.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> больше 0.05, то различия между категориями качества незначимы, и влияние качества на продолжительность сделок можно считать </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>несущественным</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Средняя продолжительность для каждой категории качества</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Если на графике видны явные различия в средней продолжительности сделок для разных уровней качества, это также является важным показателем.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Категории с </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>высокой средней продолжительностью</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> могут указывать на более сложные или длительные сделки.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Категории с </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>низкой средней продолжительностью</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> могут свидетельствовать о более простых сделках, которые быстрее проходят цикл закрытия.</t>
+    </r>
+  </si>
+  <si>
+    <t>Возможные выводы (на основе графика):</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Статистическая значимость (p-value)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> меньше 0.05: Это указывает на то, что качество сделки действительно оказывает влияние на продолжительность её закрытия. Следовательно, сделки разных качеств требуют различного времени для закрытия.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> больше 0.05: Это означает, что различия между категориями качества не являются значимыми, и качество сделки не оказывает существенного влияния на продолжительность сделки.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Анализ различий в средней продолжительности</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если на графике присутствуют категории с </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>очень высокой средней продолжительностью</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, это может указывать на проблемы с управлением или ресурсами для обработки сделок этого качества. Возможно, стоит рассмотреть оптимизацию процессов для этих сделок.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если категории с </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>низкой средней продолжительностью</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> занимают значительную долю сделок, это может говорить о том, что сделки с высоким качеством закрываются быстрее.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Практическая интерпретация</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Если качество оказывает значительное влияние, то можно адаптировать процесс продаж в зависимости от уровня качества сделки. Например, для сделок с более высоким качеством могут быть выделены дополнительные ресурсы или оптимизирован процесс работы с клиентом.</t>
+  </si>
+  <si>
+    <t>Если качество не оказывает значительного влияния, то стоит искать другие факторы, которые могут влиять на продолжительность сделки (например, размер сделки, тип клиента и т.д.).</t>
+  </si>
+  <si>
+    <t>Заключение:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Окончательный вывод будет зависеть от того, что показывает </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и как распределены категории по продолжительности. Если разница статистически значима, то качество действительно влияет на скорость закрытия сделок. Если нет — значит, есть другие более важные факторы, которые влияют на продолжительность.</t>
+    </r>
+  </si>
+  <si>
+    <t>Calls.ру, Spend.ру, Deals.ру.</t>
+  </si>
+  <si>
+    <t>Очистка и подготовка данных</t>
+  </si>
+  <si>
+    <t>1. Описательная статистика</t>
+  </si>
+  <si>
+    <t>stat_describe.ру</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Визуализация данных</t>
+  </si>
+  <si>
+    <t>Deals_hist</t>
+  </si>
+  <si>
+    <t>Распределение числовых данных</t>
+  </si>
+  <si>
+    <t>boxplots.ру</t>
+  </si>
+  <si>
+    <t>Анализ временных рядов</t>
+  </si>
+  <si>
+    <t>time_series.ру</t>
+  </si>
+  <si>
+    <t>4. Анализ эффективности кампаний </t>
+  </si>
+  <si>
+    <t>Analysis_of_campaign_effectiveness.ру</t>
+  </si>
+  <si>
+    <t>5. Анализ эффективности работы отдела продаж</t>
+  </si>
+  <si>
+    <t>Analysis_of_sales_department.ру</t>
+  </si>
+  <si>
+    <t>6. Анализ платежей и продуктов</t>
+  </si>
+  <si>
+    <t>Payment_product_analysis.ру</t>
+  </si>
+  <si>
+    <t>7. Географический анализ</t>
+  </si>
+  <si>
+    <t>Geographical_analysis.ру</t>
+  </si>
+  <si>
+    <t>8. Задание по продуктовой аналитике </t>
+  </si>
+  <si>
+    <t>Dashboard.ру</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1929,6 +3937,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1956,7 +3985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1998,6 +4027,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2013,6 +4060,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Загруженное изображение">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD0A28D-AAD9-6A3F-59A0-2230835494D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4475,7 +6588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427DDB04-CB3C-4172-AB0F-03CD9A0E3019}">
   <dimension ref="A1:A88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="A79" sqref="A79:A88"/>
     </sheetView>
   </sheetViews>
@@ -4821,4 +6934,1331 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B874447-2883-421A-AB11-D2EDBD11233E}">
+  <dimension ref="A1:D200"/>
+  <sheetViews>
+    <sheetView topLeftCell="A151" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J173" sqref="J173"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18">
+      <c r="A3" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18">
+      <c r="A12" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18">
+      <c r="A17" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18">
+      <c r="A25" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18">
+      <c r="A35" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.9">
+      <c r="A39" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18">
+      <c r="A45" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.9">
+      <c r="A47" s="16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18">
+      <c r="A59" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="18">
+      <c r="A66" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18">
+      <c r="A73" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18">
+      <c r="A82" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="6"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18">
+      <c r="A89" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="6"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="29.15">
+      <c r="A99" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="18">
+        <v>8569.0720610687004</v>
+      </c>
+      <c r="B100" s="18">
+        <v>46.392631089047399</v>
+      </c>
+      <c r="C100" s="18">
+        <v>8569.0720610687004</v>
+      </c>
+      <c r="D100" s="18">
+        <v>0.99458603793287903</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18">
+      <c r="A109" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18">
+      <c r="A113" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="6"/>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="18">
+      <c r="A127" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="6"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="18">
+      <c r="A134" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="6"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="10" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="18">
+      <c r="A139" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="6"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="18">
+      <c r="A145" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="6"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E27744C-D78F-48E7-9FB2-97AB56B607D1}">
+  <dimension ref="A31:A156"/>
+  <sheetViews>
+    <sheetView topLeftCell="A121" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:A156"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetData>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18">
+      <c r="A39" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18">
+      <c r="A45" s="9" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18">
+      <c r="A51" s="9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="18">
+      <c r="A56" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="13" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="18">
+      <c r="A72" s="9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="6"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18">
+      <c r="A77" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="10" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18">
+      <c r="A82" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="10" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18">
+      <c r="A87" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="6"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18">
+      <c r="A92" s="9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="6"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="10" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18">
+      <c r="A97" s="9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18">
+      <c r="A102" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18">
+      <c r="A107" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="6"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18">
+      <c r="A111" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="6"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="10" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="10" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="6"/>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="6"/>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="6"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="6"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="6"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="18">
+      <c r="A134" s="9" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="6"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="10" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="6"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="6"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="13" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="6"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="6"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="6"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="6"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="10" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="6"/>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="6"/>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="18">
+      <c r="A154" s="9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED906FEA-563E-4D3C-8F4D-E6B44D8A3005}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6"/>
+  <cols>
+    <col min="1" max="1" width="15.53515625" customWidth="1"/>
+    <col min="5" max="5" width="21.15234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="20" t="s">
+        <v>576</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>584</v>
+      </c>
+      <c r="E5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>588</v>
+      </c>
+      <c r="E7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="42.45">
+      <c r="A9" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="E9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="42.45">
+      <c r="A10" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="E10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="22"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="21"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="21" t="s">
+        <v>579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>